--- a/第四阶段/tidb性能调优.xlsx
+++ b/第四阶段/tidb性能调优.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my content\liyan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my content\liyan\Desktop\openEuler\spe\summer2021-133\第四阶段\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573983EE-32F4-4320-BA03-85797DB3CC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1CB8A-2B5A-4DB3-B135-E5DEC5201BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11835" xr2:uid="{F307DA20-C40D-4D70-A632-1A5FB729FCB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>测试对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <t>oltp_point_select</t>
   </si>
   <si>
-    <t>queries:8303225（13835.9 pre sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>oltp_update_index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,11 +86,125 @@
     <t>oltp_read_only</t>
   </si>
   <si>
-    <t>queries:66298（109.10 pre sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queries:3073072（5114.32 pre sec)</t>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU speed：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events per second :2648.57</t>
+  </si>
+  <si>
+    <t>General statistics:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> total time:10.0007s</t>
+  </si>
+  <si>
+    <t>total number of events:26490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latency(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min::0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg:0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max:0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95th percentile:0.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum:19993.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threads fairness:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events(avg/stddev):13245.0000/6.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execution time(avg / stddev): 9,9970/0.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queries :9446603(15742.72 per sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queries:73883（123.08 pre sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queries:3107552（5173.91 pre sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total operations:50900481(5089445.41 per second)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49707.50MiB transferred (4970.16MiB /sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total time:10.0002s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total number of events:50900481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min:"0.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg:0.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max:58.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95th percentile:0.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum:28464.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events(avg/stddev)：12725120.2500/466194.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execution time(avg/stddev):7.1162/0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +251,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +278,17 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,7 +299,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,8 +309,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,11 +335,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="40% - 着色 6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - 着色 3" xfId="3" builtinId="40"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="着色 5" xfId="4" builtinId="45"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,19 +659,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B94583-7680-4ECD-8C6F-81800B1E88C0}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C13" activeCellId="1" sqref="A1:G1 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="39.625" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
     <col min="7" max="7" width="34.125" customWidth="1"/>
   </cols>
@@ -578,34 +721,188 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第四阶段/tidb性能调优.xlsx
+++ b/第四阶段/tidb性能调优.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my content\liyan\Desktop\openEuler\spe\summer2021-133\第四阶段\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1CB8A-2B5A-4DB3-B135-E5DEC5201BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1806FF-1C8F-4506-B9E3-B282AD17755C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11835" xr2:uid="{F307DA20-C40D-4D70-A632-1A5FB729FCB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F307DA20-C40D-4D70-A632-1A5FB729FCB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>测试对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>queries:73883（123.08 pre sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>queries:3107552（5173.91 pre sec)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +201,22 @@
   </si>
   <si>
     <t>execution time(avg/stddev):7.1162/0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queries :9652629(16085.33 per sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queries:109241（178.79 pre sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queries:103292（151.31 pre sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tikv_config__server__grpc_concurrency=5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +271,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -316,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +342,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -335,10 +362,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,7 +686,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" activeCellId="1" sqref="A1:G1 C13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,15 +701,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -711,10 +735,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -723,179 +747,194 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
